--- a/SF_Working_Plan21_Plan.xlsx
+++ b/SF_Working_Plan21_Plan.xlsx
@@ -573,8 +573,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -585,8 +585,8 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="3">
         <f>=COUNTIF(C3:G3,"NW")</f>
@@ -605,11 +605,11 @@
       <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>10</v>
@@ -628,17 +628,17 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H5" s="3">
         <f>=COUNTIF(C5:G5,"NW")</f>
@@ -651,14 +651,14 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -677,20 +677,20 @@
       <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="3">
         <f>=COUNTIF(C7:G7,"NW")</f>
@@ -712,11 +712,11 @@
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="3">
         <f>=COUNTIF(C8:G8,"NW")</f>
@@ -732,14 +732,14 @@
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>9</v>
@@ -755,8 +755,8 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>10</v>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -764,8 +764,8 @@
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>10</v>
@@ -781,17 +781,17 @@
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -807,14 +807,14 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>10</v>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -833,20 +833,20 @@
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="3">
         <f>=COUNTIF(C13:G13,"NW")</f>
@@ -859,8 +859,8 @@
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -868,8 +868,8 @@
       <c r="E14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
@@ -885,20 +885,20 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H15" s="3">
         <f>=COUNTIF(C15:G15,"NW")</f>
@@ -914,11 +914,11 @@
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -943,14 +943,14 @@
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>9</v>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <f>=COUNTIF(C17:G17,"NW")</f>
@@ -966,17 +966,17 @@
       <c r="C18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H18" s="3">
         <f>=COUNTIF(C18:G18,"NW")</f>
@@ -989,11 +989,11 @@
       <c r="B19" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>

--- a/SF_Working_Plan21_Plan.xlsx
+++ b/SF_Working_Plan21_Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -40,13 +40,16 @@
     <t>ONUR ERDEN</t>
   </si>
   <si>
+    <t>OFFD</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>UYGAR ZUBARI</t>
+  </si>
+  <si>
     <t>SW</t>
-  </si>
-  <si>
-    <t>NW</t>
-  </si>
-  <si>
-    <t>UYGAR ZUBARI</t>
   </si>
   <si>
     <t>OZGUR SELMANOGLU</t>
@@ -122,17 +125,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F0F0FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF0F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF66"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -547,22 +550,22 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
         <f>=COUNTIF(C2:G2,"NW")</f>
       </c>
     </row>
@@ -573,22 +576,22 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
         <f>=COUNTIF(C3:G3,"NW")</f>
       </c>
     </row>
@@ -597,24 +600,24 @@
         <v>20017</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
         <f>=COUNTIF(C4:G4,"NW")</f>
       </c>
     </row>
@@ -623,24 +626,24 @@
         <v>20018</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
         <f>=COUNTIF(C5:G5,"NW")</f>
       </c>
     </row>
@@ -649,24 +652,24 @@
         <v>20019</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
         <f>=COUNTIF(C6:G6,"NW")</f>
       </c>
     </row>
@@ -675,24 +678,24 @@
         <v>20020</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
         <f>=COUNTIF(C7:G7,"NW")</f>
       </c>
     </row>
@@ -701,24 +704,24 @@
         <v>20021</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
         <f>=COUNTIF(C8:G8,"NW")</f>
       </c>
     </row>
@@ -727,24 +730,24 @@
         <v>20022</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="3">
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
         <f>=COUNTIF(C9:G9,"NW")</f>
       </c>
     </row>
@@ -753,24 +756,24 @@
         <v>20023</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2">
         <f>=COUNTIF(C10:G10,"NW")</f>
       </c>
     </row>
@@ -779,24 +782,24 @@
         <v>20024</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2">
         <f>=COUNTIF(C11:G11,"NW")</f>
       </c>
     </row>
@@ -805,24 +808,24 @@
         <v>20027</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2">
         <f>=COUNTIF(C12:G12,"NW")</f>
       </c>
     </row>
@@ -831,24 +834,24 @@
         <v>20029</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
         <f>=COUNTIF(C13:G13,"NW")</f>
       </c>
     </row>
@@ -857,24 +860,24 @@
         <v>20030</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3">
+        <v>10</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
         <f>=COUNTIF(C14:G14,"NW")</f>
       </c>
     </row>
@@ -883,24 +886,24 @@
         <v>20031</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="3">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
         <f>=COUNTIF(C15:G15,"NW")</f>
       </c>
     </row>
@@ -909,24 +912,24 @@
         <v>20035</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3">
+        <v>10</v>
+      </c>
+      <c r="H16" s="2">
         <f>=COUNTIF(C16:G16,"NW")</f>
       </c>
     </row>
@@ -935,24 +938,24 @@
         <v>20047</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="3">
+        <v>10</v>
+      </c>
+      <c r="H17" s="2">
         <f>=COUNTIF(C17:G17,"NW")</f>
       </c>
     </row>
@@ -961,24 +964,24 @@
         <v>20062</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="3">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
         <f>=COUNTIF(C18:G18,"NW")</f>
       </c>
     </row>
@@ -987,30 +990,30 @@
         <v>16000287</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="2">
         <f>=COUNTIF(C19:G19,"NW")</f>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4">
         <f>=COUNTIF(C2:C19,"NW")</f>

--- a/SF_Working_Plan21_Plan.xlsx
+++ b/SF_Working_Plan21_Plan.xlsx
@@ -40,16 +40,16 @@
     <t>ONUR ERDEN</t>
   </si>
   <si>
+    <t>NW</t>
+  </si>
+  <si>
     <t>OFFD</t>
   </si>
   <si>
-    <t>NW</t>
+    <t>SW</t>
   </si>
   <si>
     <t>UYGAR ZUBARI</t>
-  </si>
-  <si>
-    <t>SW</t>
   </si>
   <si>
     <t>OZGUR SELMANOGLU</t>
@@ -130,12 +130,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66"/>
+        <fgColor rgb="F0F0FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F0F0FF"/>
+        <fgColor rgb="FFFF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -550,22 +550,22 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3">
         <f>=COUNTIF(C2:G2,"NW")</f>
       </c>
     </row>
@@ -574,24 +574,24 @@
         <v>20016</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
         <f>=COUNTIF(C3:G3,"NW")</f>
       </c>
     </row>
@@ -602,22 +602,22 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3">
         <f>=COUNTIF(C4:G4,"NW")</f>
       </c>
     </row>
@@ -628,22 +628,22 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3">
         <f>=COUNTIF(C5:G5,"NW")</f>
       </c>
     </row>
@@ -655,21 +655,21 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
         <f>=COUNTIF(C6:G6,"NW")</f>
       </c>
     </row>
@@ -681,21 +681,21 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3">
         <f>=COUNTIF(C7:G7,"NW")</f>
       </c>
     </row>
@@ -706,22 +706,22 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>10</v>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
         <f>=COUNTIF(C8:G8,"NW")</f>
       </c>
     </row>
@@ -732,22 +732,22 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="3">
         <f>=COUNTIF(C9:G9,"NW")</f>
       </c>
     </row>
@@ -758,22 +758,22 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
         <f>=COUNTIF(C10:G10,"NW")</f>
       </c>
     </row>
@@ -784,22 +784,22 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
         <f>=COUNTIF(C11:G11,"NW")</f>
       </c>
     </row>
@@ -811,21 +811,21 @@
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="3">
         <f>=COUNTIF(C12:G12,"NW")</f>
       </c>
     </row>
@@ -836,22 +836,22 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="3">
         <f>=COUNTIF(C13:G13,"NW")</f>
       </c>
     </row>
@@ -862,22 +862,22 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="3">
         <f>=COUNTIF(C14:G14,"NW")</f>
       </c>
     </row>
@@ -888,22 +888,22 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="2">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="3">
         <f>=COUNTIF(C15:G15,"NW")</f>
       </c>
     </row>
@@ -915,21 +915,21 @@
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="2">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3">
         <f>=COUNTIF(C16:G16,"NW")</f>
       </c>
     </row>
@@ -941,21 +941,21 @@
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="2">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="3">
         <f>=COUNTIF(C17:G17,"NW")</f>
       </c>
     </row>
@@ -966,22 +966,22 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>12</v>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="3">
         <f>=COUNTIF(C18:G18,"NW")</f>
       </c>
     </row>
@@ -993,21 +993,21 @@
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="2">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="3">
         <f>=COUNTIF(C19:G19,"NW")</f>
       </c>
     </row>

--- a/SF_Working_Plan21_Plan.xlsx
+++ b/SF_Working_Plan21_Plan.xlsx
@@ -43,7 +43,7 @@
     <t>NW</t>
   </si>
   <si>
-    <t>OFFD</t>
+    <t>PH</t>
   </si>
   <si>
     <t>SW</t>
@@ -559,11 +559,11 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="3">
         <f>=COUNTIF(C2:G2,"NW")</f>
@@ -576,11 +576,11 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -602,20 +602,20 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H4" s="3">
         <f>=COUNTIF(C4:G4,"NW")</f>
@@ -631,11 +631,11 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -657,8 +657,8 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>11</v>
@@ -680,14 +680,14 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -706,20 +706,20 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H8" s="3">
         <f>=COUNTIF(C8:G8,"NW")</f>
@@ -732,11 +732,11 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -744,8 +744,8 @@
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H9" s="3">
         <f>=COUNTIF(C9:G9,"NW")</f>
@@ -761,17 +761,17 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H10" s="3">
         <f>=COUNTIF(C10:G10,"NW")</f>
@@ -787,14 +787,14 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>9</v>
@@ -813,8 +813,8 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>11</v>
@@ -822,8 +822,8 @@
       <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H12" s="3">
         <f>=COUNTIF(C12:G12,"NW")</f>
@@ -836,11 +836,11 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>9</v>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>11</v>
@@ -862,14 +862,14 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>9</v>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>11</v>
@@ -888,11 +888,11 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>9</v>
@@ -914,20 +914,20 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <f>=COUNTIF(C16:G16,"NW")</f>
@@ -940,11 +940,11 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>11</v>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>11</v>
@@ -952,8 +952,8 @@
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <f>=COUNTIF(C17:G17,"NW")</f>
@@ -966,14 +966,14 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>9</v>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -995,8 +995,8 @@
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
+      <c r="D19" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -1004,8 +1004,8 @@
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="H19" s="3">
         <f>=COUNTIF(C19:G19,"NW")</f>

--- a/SF_Working_Plan21_Plan.xlsx
+++ b/SF_Working_Plan21_Plan.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -19,19 +19,19 @@
     <t>Name</t>
   </si>
   <si>
-    <t>23 Monday</t>
-  </si>
-  <si>
-    <t>24 Tuesday</t>
-  </si>
-  <si>
-    <t>25 Wednesday</t>
-  </si>
-  <si>
-    <t>26 Thursday</t>
-  </si>
-  <si>
-    <t>27 Friday</t>
+    <t>22 Monday</t>
+  </si>
+  <si>
+    <t>21 Tuesday</t>
+  </si>
+  <si>
+    <t>21 Wednesday</t>
+  </si>
+  <si>
+    <t>20 Thursday</t>
+  </si>
+  <si>
+    <t>19 Friday</t>
   </si>
   <si>
     <t>Office Days Count</t>
@@ -43,58 +43,55 @@
     <t>NW</t>
   </si>
   <si>
+    <t>ONUR ERDEN</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>UYGAR ZUBARI</t>
+  </si>
+  <si>
+    <t>Normal Working(Company)</t>
+  </si>
+  <si>
+    <t>OZGUR SELMANOGLU</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Annual Leave</t>
+  </si>
+  <si>
+    <t>MENGUÇ HALIL</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>Health Report</t>
+  </si>
+  <si>
+    <t>ILKNUR KURBAN</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Unpaid Leave</t>
+  </si>
+  <si>
+    <t>VOLKAN BALIKCI</t>
+  </si>
+  <si>
+    <t>Smart Working</t>
+  </si>
+  <si>
+    <t>TAHA ERKAN</t>
+  </si>
+  <si>
     <t>PH</t>
-  </si>
-  <si>
-    <t>ONUR ERDEN</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>UYGAR ZUBARI</t>
-  </si>
-  <si>
-    <t>Normal Working(Company)</t>
-  </si>
-  <si>
-    <t>OZGUR SELMANOGLU</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Annual Leave</t>
-  </si>
-  <si>
-    <t>MENGUÇ HALIL</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>Health Report</t>
-  </si>
-  <si>
-    <t>ILKNUR KURBAN</t>
-  </si>
-  <si>
-    <t>ML</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Unpaid Leave</t>
-  </si>
-  <si>
-    <t>VOLKAN BALIKCI</t>
-  </si>
-  <si>
-    <t>Smart Working</t>
-  </si>
-  <si>
-    <t>TAHA ERKAN</t>
   </si>
   <si>
     <t>Public Holiday</t>
@@ -149,7 +146,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,11 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="F0F0FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDD00"/>
       </patternFill>
     </fill>
     <fill>
@@ -178,11 +170,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF66"/>
       </patternFill>
     </fill>
@@ -193,17 +180,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="6666FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDD00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEECC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -237,7 +229,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,8 +610,8 @@
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -628,7 +619,7 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <f>=COUNTIF(C2:G2,"NW")</f>
       </c>
     </row>
@@ -637,24 +628,24 @@
         <v>20015</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>=COUNTIF(C3:G3,"NW")</f>
       </c>
     </row>
@@ -663,31 +654,31 @@
         <v>20016</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2">
+        <f>=COUNTIF(C4:G4,"NW")</f>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3">
-        <f>=COUNTIF(C4:G4,"NW")</f>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -695,31 +686,31 @@
         <v>20017</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2">
+        <f>=COUNTIF(C5:G5,"NW")</f>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3">
-        <f>=COUNTIF(C5:G5,"NW")</f>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -727,31 +718,31 @@
         <v>20018</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2">
+        <f>=COUNTIF(C6:G6,"NW")</f>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="3">
-        <f>=COUNTIF(C6:G6,"NW")</f>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,31 +750,31 @@
         <v>20019</v>
       </c>
       <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2">
+        <f>=COUNTIF(C7:G7,"NW")</f>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="L7" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3">
-        <f>=COUNTIF(C7:G7,"NW")</f>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -791,31 +782,31 @@
         <v>20020</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f>=COUNTIF(C8:G8,"NW")</f>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>26</v>
+      <c r="K8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -823,31 +814,31 @@
         <v>20021</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2">
+        <f>=COUNTIF(C9:G9,"NW")</f>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="3">
-        <f>=COUNTIF(C9:G9,"NW")</f>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -855,24 +846,24 @@
         <v>20022</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
         <f>=COUNTIF(C10:G10,"NW")</f>
       </c>
     </row>
@@ -881,24 +872,24 @@
         <v>20023</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="3">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2">
         <f>=COUNTIF(C11:G11,"NW")</f>
       </c>
     </row>
@@ -907,24 +898,24 @@
         <v>20024</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2">
         <f>=COUNTIF(C12:G12,"NW")</f>
       </c>
     </row>
@@ -933,24 +924,24 @@
         <v>20027</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2">
         <f>=COUNTIF(C13:G13,"NW")</f>
       </c>
     </row>
@@ -959,24 +950,24 @@
         <v>20029</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
         <f>=COUNTIF(C14:G14,"NW")</f>
       </c>
     </row>
@@ -985,24 +976,24 @@
         <v>20030</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f>=COUNTIF(C15:G15,"NW")</f>
       </c>
     </row>
@@ -1011,24 +1002,24 @@
         <v>20031</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3">
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2">
         <f>=COUNTIF(C16:G16,"NW")</f>
       </c>
     </row>
@@ -1037,24 +1028,24 @@
         <v>20035</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>12</v>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f>=COUNTIF(C17:G17,"NW")</f>
       </c>
     </row>
@@ -1063,24 +1054,24 @@
         <v>20047</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2">
         <f>=COUNTIF(C18:G18,"NW")</f>
       </c>
     </row>
@@ -1089,24 +1080,24 @@
         <v>20062</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="3">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2">
         <f>=COUNTIF(C19:G19,"NW")</f>
       </c>
     </row>
@@ -1115,47 +1106,47 @@
         <v>16000287</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
+      <c r="E20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f>=COUNTIF(C20:G20,"NW")</f>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10">
+        <v>39</v>
+      </c>
+      <c r="C21" s="8">
         <f>=COUNTIF(C2:C20,"NW")</f>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <f>=COUNTIF(D2:D20,"NW")</f>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <f>=COUNTIF(E2:E20,"NW")</f>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <f>=COUNTIF(F2:F20,"NW")</f>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <f>=COUNTIF(G2:G20,"NW")</f>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="9">
         <f>=SUM(C21:G21)</f>
       </c>
     </row>
